--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/VENTAS CENTRAL  Octurbre-22.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #10  OCTUBRE 2022/VENTAS CENTRAL  Octurbre-22.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="10740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="C236" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J261"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16779,7 +16779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
